--- a/US Housing Monthly Revenue.xlsx
+++ b/US Housing Monthly Revenue.xlsx
@@ -25,7 +25,7 @@
     <t>Avg. Revenue</t>
   </si>
   <si>
-    <t>Periods of Expansion</t>
+    <t># of Expansions</t>
   </si>
   <si>
     <t>Peak</t>
@@ -37,7 +37,7 @@
     <t>Valley</t>
   </si>
   <si>
-    <t>Periods of Recession</t>
+    <t># of Recessions</t>
   </si>
   <si>
     <t>Period</t>
@@ -2324,7 +2324,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/US Housing Monthly Revenue.xlsx
+++ b/US Housing Monthly Revenue.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanandrade/Desktop/GitHub/US_Housing_Macro/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEFC948-BD36-E24B-8FA0-F5A61FA7DA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Revenue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="649">
   <si>
     <t>Avg. Price</t>
   </si>
@@ -1951,20 +1957,26 @@
     <t>11.20%</t>
   </si>
   <si>
-    <t>-3.98%</t>
-  </si>
-  <si>
-    <t>-14.93%</t>
+    <t>5.68%</t>
+  </si>
+  <si>
+    <t>-4.55%</t>
+  </si>
+  <si>
+    <t>-8.28%</t>
+  </si>
+  <si>
+    <t>-0.75%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2030,6 +2042,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2076,7 +2096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2108,9 +2128,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2142,6 +2180,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2317,17 +2373,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I713"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I714"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A704" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="11.7109375" customWidth="1"/>
+    <col min="1" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>23012</v>
       </c>
@@ -2385,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>23043</v>
       </c>
@@ -2414,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>23071</v>
       </c>
@@ -2443,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>23102</v>
       </c>
@@ -2472,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>23132</v>
       </c>
@@ -2501,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>23163</v>
       </c>
@@ -2530,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>23193</v>
       </c>
@@ -2559,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>23224</v>
       </c>
@@ -2588,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>23255</v>
       </c>
@@ -2617,7 +2675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>23285</v>
       </c>
@@ -2646,7 +2704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>23316</v>
       </c>
@@ -2675,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>23346</v>
       </c>
@@ -2704,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>23377</v>
       </c>
@@ -2733,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>23408</v>
       </c>
@@ -2762,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>23437</v>
       </c>
@@ -2791,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>23468</v>
       </c>
@@ -2820,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>23498</v>
       </c>
@@ -2849,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>23529</v>
       </c>
@@ -2878,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>23559</v>
       </c>
@@ -2907,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>23590</v>
       </c>
@@ -2936,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>23621</v>
       </c>
@@ -2965,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>23651</v>
       </c>
@@ -2994,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23682</v>
       </c>
@@ -3023,7 +3081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23712</v>
       </c>
@@ -3052,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23743</v>
       </c>
@@ -3081,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>23774</v>
       </c>
@@ -3110,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>23802</v>
       </c>
@@ -3139,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>23833</v>
       </c>
@@ -3168,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>23863</v>
       </c>
@@ -3197,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>23894</v>
       </c>
@@ -3226,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>23924</v>
       </c>
@@ -3255,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>23955</v>
       </c>
@@ -3284,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>23986</v>
       </c>
@@ -3313,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>24016</v>
       </c>
@@ -3342,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>24047</v>
       </c>
@@ -3371,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>24077</v>
       </c>
@@ -3400,7 +3458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>24108</v>
       </c>
@@ -3429,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>24139</v>
       </c>
@@ -3458,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>24167</v>
       </c>
@@ -3487,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>24198</v>
       </c>
@@ -3516,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>24228</v>
       </c>
@@ -3545,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>24259</v>
       </c>
@@ -3574,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>24289</v>
       </c>
@@ -3603,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>24320</v>
       </c>
@@ -3632,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>24351</v>
       </c>
@@ -3661,7 +3719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>24381</v>
       </c>
@@ -3690,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>24412</v>
       </c>
@@ -3719,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>24442</v>
       </c>
@@ -3748,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>24473</v>
       </c>
@@ -3777,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>24504</v>
       </c>
@@ -3806,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>24532</v>
       </c>
@@ -3835,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>24563</v>
       </c>
@@ -3864,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>24593</v>
       </c>
@@ -3893,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>24624</v>
       </c>
@@ -3922,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>24654</v>
       </c>
@@ -3951,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>24685</v>
       </c>
@@ -3980,7 +4038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>24716</v>
       </c>
@@ -4009,7 +4067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>24746</v>
       </c>
@@ -4038,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>24777</v>
       </c>
@@ -4067,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>24807</v>
       </c>
@@ -4096,7 +4154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>24838</v>
       </c>
@@ -4125,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>24869</v>
       </c>
@@ -4154,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>24898</v>
       </c>
@@ -4183,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>24929</v>
       </c>
@@ -4212,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>24959</v>
       </c>
@@ -4241,7 +4299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>24990</v>
       </c>
@@ -4270,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>25020</v>
       </c>
@@ -4299,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>25051</v>
       </c>
@@ -4328,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>25082</v>
       </c>
@@ -4357,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>25112</v>
       </c>
@@ -4386,7 +4444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>25143</v>
       </c>
@@ -4415,7 +4473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>25173</v>
       </c>
@@ -4444,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>25204</v>
       </c>
@@ -4473,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>25235</v>
       </c>
@@ -4502,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>25263</v>
       </c>
@@ -4531,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>25294</v>
       </c>
@@ -4560,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>25324</v>
       </c>
@@ -4589,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>25355</v>
       </c>
@@ -4618,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>25385</v>
       </c>
@@ -4647,7 +4705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>25416</v>
       </c>
@@ -4676,7 +4734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>25447</v>
       </c>
@@ -4705,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>25477</v>
       </c>
@@ -4734,7 +4792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>25508</v>
       </c>
@@ -4763,7 +4821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>25538</v>
       </c>
@@ -4792,7 +4850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>25569</v>
       </c>
@@ -4821,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>25600</v>
       </c>
@@ -4850,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>25628</v>
       </c>
@@ -4879,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>25659</v>
       </c>
@@ -4908,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>25689</v>
       </c>
@@ -4937,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>25720</v>
       </c>
@@ -4966,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>25750</v>
       </c>
@@ -4995,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>25781</v>
       </c>
@@ -5024,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>25812</v>
       </c>
@@ -5053,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>25842</v>
       </c>
@@ -5082,7 +5140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>25873</v>
       </c>
@@ -5111,7 +5169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>25903</v>
       </c>
@@ -5140,7 +5198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>25934</v>
       </c>
@@ -5169,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>25965</v>
       </c>
@@ -5198,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>25993</v>
       </c>
@@ -5227,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>26024</v>
       </c>
@@ -5256,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>26054</v>
       </c>
@@ -5285,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>26085</v>
       </c>
@@ -5314,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>26115</v>
       </c>
@@ -5343,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>26146</v>
       </c>
@@ -5372,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>26177</v>
       </c>
@@ -5401,7 +5459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>26207</v>
       </c>
@@ -5430,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>26238</v>
       </c>
@@ -5459,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>26268</v>
       </c>
@@ -5488,7 +5546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>26299</v>
       </c>
@@ -5517,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>26330</v>
       </c>
@@ -5546,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>26359</v>
       </c>
@@ -5575,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>26390</v>
       </c>
@@ -5604,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>26420</v>
       </c>
@@ -5633,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>26451</v>
       </c>
@@ -5662,7 +5720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>26481</v>
       </c>
@@ -5691,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>26512</v>
       </c>
@@ -5720,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>26543</v>
       </c>
@@ -5749,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>26573</v>
       </c>
@@ -5778,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>26604</v>
       </c>
@@ -5807,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>26634</v>
       </c>
@@ -5836,7 +5894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>26665</v>
       </c>
@@ -5865,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>26696</v>
       </c>
@@ -5894,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>26724</v>
       </c>
@@ -5923,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>26755</v>
       </c>
@@ -5952,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>26785</v>
       </c>
@@ -5981,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>26816</v>
       </c>
@@ -6010,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>26846</v>
       </c>
@@ -6039,7 +6097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>26877</v>
       </c>
@@ -6068,7 +6126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>26908</v>
       </c>
@@ -6097,7 +6155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>26938</v>
       </c>
@@ -6126,7 +6184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>26969</v>
       </c>
@@ -6155,7 +6213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>26999</v>
       </c>
@@ -6184,7 +6242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>27030</v>
       </c>
@@ -6213,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>27061</v>
       </c>
@@ -6242,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>27089</v>
       </c>
@@ -6271,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>27120</v>
       </c>
@@ -6300,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>27150</v>
       </c>
@@ -6329,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>27181</v>
       </c>
@@ -6358,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>27211</v>
       </c>
@@ -6387,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>27242</v>
       </c>
@@ -6416,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>27273</v>
       </c>
@@ -6445,7 +6503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>27303</v>
       </c>
@@ -6474,7 +6532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>27334</v>
       </c>
@@ -6503,7 +6561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>27364</v>
       </c>
@@ -6532,7 +6590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>27395</v>
       </c>
@@ -6561,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>27426</v>
       </c>
@@ -6590,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>27454</v>
       </c>
@@ -6619,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>27485</v>
       </c>
@@ -6648,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>27515</v>
       </c>
@@ -6677,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>27546</v>
       </c>
@@ -6706,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>27576</v>
       </c>
@@ -6735,7 +6793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>27607</v>
       </c>
@@ -6764,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>27638</v>
       </c>
@@ -6793,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>27668</v>
       </c>
@@ -6822,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>27699</v>
       </c>
@@ -6851,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>27729</v>
       </c>
@@ -6880,7 +6938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>27760</v>
       </c>
@@ -6909,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>27791</v>
       </c>
@@ -6938,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>27820</v>
       </c>
@@ -6967,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>27851</v>
       </c>
@@ -6996,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>27881</v>
       </c>
@@ -7025,7 +7083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>27912</v>
       </c>
@@ -7054,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>27942</v>
       </c>
@@ -7083,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>27973</v>
       </c>
@@ -7112,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>28004</v>
       </c>
@@ -7141,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>28034</v>
       </c>
@@ -7170,7 +7228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>28065</v>
       </c>
@@ -7199,7 +7257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>28095</v>
       </c>
@@ -7228,7 +7286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>28126</v>
       </c>
@@ -7257,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>28157</v>
       </c>
@@ -7286,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>28185</v>
       </c>
@@ -7315,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>28216</v>
       </c>
@@ -7344,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>28246</v>
       </c>
@@ -7373,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>28277</v>
       </c>
@@ -7402,7 +7460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>28307</v>
       </c>
@@ -7431,7 +7489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>28338</v>
       </c>
@@ -7460,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>28369</v>
       </c>
@@ -7489,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>28399</v>
       </c>
@@ -7518,7 +7576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>28430</v>
       </c>
@@ -7547,7 +7605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>28460</v>
       </c>
@@ -7576,7 +7634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>28491</v>
       </c>
@@ -7605,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>28522</v>
       </c>
@@ -7634,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>28550</v>
       </c>
@@ -7663,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>28581</v>
       </c>
@@ -7692,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>28611</v>
       </c>
@@ -7721,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>28642</v>
       </c>
@@ -7750,7 +7808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>28672</v>
       </c>
@@ -7779,7 +7837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>28703</v>
       </c>
@@ -7808,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>28734</v>
       </c>
@@ -7837,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>28764</v>
       </c>
@@ -7866,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>28795</v>
       </c>
@@ -7895,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>28825</v>
       </c>
@@ -7924,7 +7982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>28856</v>
       </c>
@@ -7953,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>28887</v>
       </c>
@@ -7982,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>28915</v>
       </c>
@@ -8011,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>28946</v>
       </c>
@@ -8040,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>28976</v>
       </c>
@@ -8069,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>29007</v>
       </c>
@@ -8098,7 +8156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>29037</v>
       </c>
@@ -8127,7 +8185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>29068</v>
       </c>
@@ -8156,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>29099</v>
       </c>
@@ -8185,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>29129</v>
       </c>
@@ -8214,7 +8272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>29160</v>
       </c>
@@ -8243,7 +8301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>29190</v>
       </c>
@@ -8272,7 +8330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>29221</v>
       </c>
@@ -8301,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>29252</v>
       </c>
@@ -8330,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>29281</v>
       </c>
@@ -8359,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>29312</v>
       </c>
@@ -8388,7 +8446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>29342</v>
       </c>
@@ -8417,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>29373</v>
       </c>
@@ -8446,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>29403</v>
       </c>
@@ -8475,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>29434</v>
       </c>
@@ -8504,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>29465</v>
       </c>
@@ -8533,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>29495</v>
       </c>
@@ -8562,7 +8620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>29526</v>
       </c>
@@ -8591,7 +8649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>29556</v>
       </c>
@@ -8620,7 +8678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>29587</v>
       </c>
@@ -8649,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>29618</v>
       </c>
@@ -8678,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>29646</v>
       </c>
@@ -8707,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>29677</v>
       </c>
@@ -8736,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>29707</v>
       </c>
@@ -8765,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>29738</v>
       </c>
@@ -8794,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>29768</v>
       </c>
@@ -8823,7 +8881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>29799</v>
       </c>
@@ -8852,7 +8910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>29830</v>
       </c>
@@ -8881,7 +8939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>29860</v>
       </c>
@@ -8910,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>29891</v>
       </c>
@@ -8939,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>29921</v>
       </c>
@@ -8968,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>29952</v>
       </c>
@@ -8997,7 +9055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>29983</v>
       </c>
@@ -9026,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>30011</v>
       </c>
@@ -9055,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>30042</v>
       </c>
@@ -9084,7 +9142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>30072</v>
       </c>
@@ -9113,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>30103</v>
       </c>
@@ -9142,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>30133</v>
       </c>
@@ -9171,7 +9229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>30164</v>
       </c>
@@ -9200,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>30195</v>
       </c>
@@ -9229,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>30225</v>
       </c>
@@ -9258,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>30256</v>
       </c>
@@ -9287,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>30286</v>
       </c>
@@ -9316,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>30317</v>
       </c>
@@ -9345,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>30348</v>
       </c>
@@ -9374,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>30376</v>
       </c>
@@ -9403,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>30407</v>
       </c>
@@ -9432,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>30437</v>
       </c>
@@ -9461,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>30468</v>
       </c>
@@ -9490,7 +9548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>30498</v>
       </c>
@@ -9519,7 +9577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>30529</v>
       </c>
@@ -9548,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>30560</v>
       </c>
@@ -9577,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>30590</v>
       </c>
@@ -9606,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>30621</v>
       </c>
@@ -9635,7 +9693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>30651</v>
       </c>
@@ -9664,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>30682</v>
       </c>
@@ -9693,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>30713</v>
       </c>
@@ -9722,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>30742</v>
       </c>
@@ -9751,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>30773</v>
       </c>
@@ -9780,7 +9838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>30803</v>
       </c>
@@ -9809,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>30834</v>
       </c>
@@ -9838,7 +9896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>30864</v>
       </c>
@@ -9867,7 +9925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>30895</v>
       </c>
@@ -9896,7 +9954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>30926</v>
       </c>
@@ -9925,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>30956</v>
       </c>
@@ -9954,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>30987</v>
       </c>
@@ -9983,7 +10041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>31017</v>
       </c>
@@ -10012,7 +10070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>31048</v>
       </c>
@@ -10041,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>31079</v>
       </c>
@@ -10070,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>31107</v>
       </c>
@@ -10099,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>31138</v>
       </c>
@@ -10128,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>31168</v>
       </c>
@@ -10157,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>31199</v>
       </c>
@@ -10186,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>31229</v>
       </c>
@@ -10215,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>31260</v>
       </c>
@@ -10244,7 +10302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>31291</v>
       </c>
@@ -10273,7 +10331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>31321</v>
       </c>
@@ -10302,7 +10360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>31352</v>
       </c>
@@ -10331,7 +10389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>31382</v>
       </c>
@@ -10360,7 +10418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>31413</v>
       </c>
@@ -10389,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>31444</v>
       </c>
@@ -10418,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>31472</v>
       </c>
@@ -10447,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>31503</v>
       </c>
@@ -10476,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>31533</v>
       </c>
@@ -10505,7 +10563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>31564</v>
       </c>
@@ -10534,7 +10592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>31594</v>
       </c>
@@ -10563,7 +10621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>31625</v>
       </c>
@@ -10592,7 +10650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>31656</v>
       </c>
@@ -10621,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>31686</v>
       </c>
@@ -10650,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>31717</v>
       </c>
@@ -10679,7 +10737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>31747</v>
       </c>
@@ -10708,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>31778</v>
       </c>
@@ -10737,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>31809</v>
       </c>
@@ -10766,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>31837</v>
       </c>
@@ -10795,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>31868</v>
       </c>
@@ -10824,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>31898</v>
       </c>
@@ -10853,7 +10911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>31929</v>
       </c>
@@ -10882,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>31959</v>
       </c>
@@ -10911,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>31990</v>
       </c>
@@ -10940,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>32021</v>
       </c>
@@ -10969,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>32051</v>
       </c>
@@ -10998,7 +11056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>32082</v>
       </c>
@@ -11027,7 +11085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>32112</v>
       </c>
@@ -11056,7 +11114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>32143</v>
       </c>
@@ -11085,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>32174</v>
       </c>
@@ -11114,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>32203</v>
       </c>
@@ -11143,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>32234</v>
       </c>
@@ -11172,7 +11230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>32264</v>
       </c>
@@ -11201,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>32295</v>
       </c>
@@ -11230,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>32325</v>
       </c>
@@ -11259,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>32356</v>
       </c>
@@ -11288,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>32387</v>
       </c>
@@ -11317,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>32417</v>
       </c>
@@ -11346,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>32448</v>
       </c>
@@ -11375,7 +11433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>32478</v>
       </c>
@@ -11404,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>32509</v>
       </c>
@@ -11433,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>32540</v>
       </c>
@@ -11462,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>32568</v>
       </c>
@@ -11491,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>32599</v>
       </c>
@@ -11520,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>32629</v>
       </c>
@@ -11549,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>32660</v>
       </c>
@@ -11578,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>32690</v>
       </c>
@@ -11607,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>32721</v>
       </c>
@@ -11636,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>32752</v>
       </c>
@@ -11665,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>32782</v>
       </c>
@@ -11694,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>32813</v>
       </c>
@@ -11723,7 +11781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>32843</v>
       </c>
@@ -11752,7 +11810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>32874</v>
       </c>
@@ -11781,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>32905</v>
       </c>
@@ -11810,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>32933</v>
       </c>
@@ -11839,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>32964</v>
       </c>
@@ -11868,7 +11926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>32994</v>
       </c>
@@ -11897,7 +11955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>33025</v>
       </c>
@@ -11926,7 +11984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>33055</v>
       </c>
@@ -11955,7 +12013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>33086</v>
       </c>
@@ -11984,7 +12042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>33117</v>
       </c>
@@ -12013,7 +12071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>33147</v>
       </c>
@@ -12042,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>33178</v>
       </c>
@@ -12071,7 +12129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>33208</v>
       </c>
@@ -12100,7 +12158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>33239</v>
       </c>
@@ -12129,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>33270</v>
       </c>
@@ -12158,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>33298</v>
       </c>
@@ -12187,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>33329</v>
       </c>
@@ -12216,7 +12274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>33359</v>
       </c>
@@ -12245,7 +12303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>33390</v>
       </c>
@@ -12274,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>33420</v>
       </c>
@@ -12303,7 +12361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>33451</v>
       </c>
@@ -12332,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>33482</v>
       </c>
@@ -12361,7 +12419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>33512</v>
       </c>
@@ -12390,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>33543</v>
       </c>
@@ -12419,7 +12477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>33573</v>
       </c>
@@ -12448,7 +12506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>33604</v>
       </c>
@@ -12477,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>33635</v>
       </c>
@@ -12506,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>33664</v>
       </c>
@@ -12535,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>33695</v>
       </c>
@@ -12564,7 +12622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>33725</v>
       </c>
@@ -12593,7 +12651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>33756</v>
       </c>
@@ -12622,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>33786</v>
       </c>
@@ -12651,7 +12709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>33817</v>
       </c>
@@ -12680,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>33848</v>
       </c>
@@ -12709,7 +12767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>33878</v>
       </c>
@@ -12738,7 +12796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>33909</v>
       </c>
@@ -12767,7 +12825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>33939</v>
       </c>
@@ -12796,7 +12854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>33970</v>
       </c>
@@ -12825,7 +12883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>34001</v>
       </c>
@@ -12854,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>34029</v>
       </c>
@@ -12883,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>34060</v>
       </c>
@@ -12912,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>34090</v>
       </c>
@@ -12941,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>34121</v>
       </c>
@@ -12970,7 +13028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>34151</v>
       </c>
@@ -12999,7 +13057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>34182</v>
       </c>
@@ -13028,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>34213</v>
       </c>
@@ -13057,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>34243</v>
       </c>
@@ -13086,7 +13144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>34274</v>
       </c>
@@ -13115,7 +13173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>34304</v>
       </c>
@@ -13144,7 +13202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>34335</v>
       </c>
@@ -13173,7 +13231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>34366</v>
       </c>
@@ -13202,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>34394</v>
       </c>
@@ -13231,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>34425</v>
       </c>
@@ -13260,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>34455</v>
       </c>
@@ -13289,7 +13347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>34486</v>
       </c>
@@ -13318,7 +13376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>34516</v>
       </c>
@@ -13347,7 +13405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>34547</v>
       </c>
@@ -13376,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>34578</v>
       </c>
@@ -13405,7 +13463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>34608</v>
       </c>
@@ -13434,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>34639</v>
       </c>
@@ -13463,7 +13521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>34669</v>
       </c>
@@ -13492,7 +13550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>34700</v>
       </c>
@@ -13521,7 +13579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>34731</v>
       </c>
@@ -13550,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>34759</v>
       </c>
@@ -13579,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>34790</v>
       </c>
@@ -13608,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>34820</v>
       </c>
@@ -13637,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>34851</v>
       </c>
@@ -13666,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>34881</v>
       </c>
@@ -13695,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>34912</v>
       </c>
@@ -13724,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>34943</v>
       </c>
@@ -13753,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>34973</v>
       </c>
@@ -13782,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>35004</v>
       </c>
@@ -13811,7 +13869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>35034</v>
       </c>
@@ -13840,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>35065</v>
       </c>
@@ -13869,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>35096</v>
       </c>
@@ -13898,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>35125</v>
       </c>
@@ -13927,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>35156</v>
       </c>
@@ -13956,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>35186</v>
       </c>
@@ -13985,7 +14043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>35217</v>
       </c>
@@ -14014,7 +14072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>35247</v>
       </c>
@@ -14043,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>35278</v>
       </c>
@@ -14072,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>35309</v>
       </c>
@@ -14101,7 +14159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>35339</v>
       </c>
@@ -14130,7 +14188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>35370</v>
       </c>
@@ -14159,7 +14217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>35400</v>
       </c>
@@ -14188,7 +14246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>35431</v>
       </c>
@@ -14217,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>35462</v>
       </c>
@@ -14246,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>35490</v>
       </c>
@@ -14275,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>35521</v>
       </c>
@@ -14304,7 +14362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>35551</v>
       </c>
@@ -14333,7 +14391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>35582</v>
       </c>
@@ -14362,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>35612</v>
       </c>
@@ -14391,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>35643</v>
       </c>
@@ -14420,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>35674</v>
       </c>
@@ -14449,7 +14507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>35704</v>
       </c>
@@ -14478,7 +14536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>35735</v>
       </c>
@@ -14507,7 +14565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>35765</v>
       </c>
@@ -14536,7 +14594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>35796</v>
       </c>
@@ -14565,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>35827</v>
       </c>
@@ -14594,7 +14652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>35855</v>
       </c>
@@ -14623,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>35886</v>
       </c>
@@ -14652,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>35916</v>
       </c>
@@ -14681,7 +14739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>35947</v>
       </c>
@@ -14710,7 +14768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>35977</v>
       </c>
@@ -14739,7 +14797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>36008</v>
       </c>
@@ -14768,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>36039</v>
       </c>
@@ -14797,7 +14855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>36069</v>
       </c>
@@ -14826,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>36100</v>
       </c>
@@ -14855,7 +14913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>36130</v>
       </c>
@@ -14884,7 +14942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>36161</v>
       </c>
@@ -14913,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>36192</v>
       </c>
@@ -14942,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>36220</v>
       </c>
@@ -14971,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>36251</v>
       </c>
@@ -15000,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>36281</v>
       </c>
@@ -15029,7 +15087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>36312</v>
       </c>
@@ -15058,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>36342</v>
       </c>
@@ -15087,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>36373</v>
       </c>
@@ -15116,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>36404</v>
       </c>
@@ -15145,7 +15203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>36434</v>
       </c>
@@ -15174,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>36465</v>
       </c>
@@ -15203,7 +15261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>36495</v>
       </c>
@@ -15232,7 +15290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>36526</v>
       </c>
@@ -15261,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>36557</v>
       </c>
@@ -15290,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>36586</v>
       </c>
@@ -15319,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>36617</v>
       </c>
@@ -15348,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>36647</v>
       </c>
@@ -15377,7 +15435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>36678</v>
       </c>
@@ -15406,7 +15464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>36708</v>
       </c>
@@ -15435,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>36739</v>
       </c>
@@ -15464,7 +15522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>36770</v>
       </c>
@@ -15493,7 +15551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>36800</v>
       </c>
@@ -15522,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>36831</v>
       </c>
@@ -15551,7 +15609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>36861</v>
       </c>
@@ -15580,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>36892</v>
       </c>
@@ -15609,7 +15667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>36923</v>
       </c>
@@ -15638,7 +15696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>36951</v>
       </c>
@@ -15667,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>36982</v>
       </c>
@@ -15696,7 +15754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>37012</v>
       </c>
@@ -15725,7 +15783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>37043</v>
       </c>
@@ -15754,7 +15812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>37073</v>
       </c>
@@ -15783,7 +15841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>37104</v>
       </c>
@@ -15812,7 +15870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>37135</v>
       </c>
@@ -15841,7 +15899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>37165</v>
       </c>
@@ -15870,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>37196</v>
       </c>
@@ -15899,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>37226</v>
       </c>
@@ -15928,7 +15986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>37257</v>
       </c>
@@ -15957,7 +16015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>37288</v>
       </c>
@@ -15986,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>37316</v>
       </c>
@@ -16015,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>37347</v>
       </c>
@@ -16044,7 +16102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>37377</v>
       </c>
@@ -16073,7 +16131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>37408</v>
       </c>
@@ -16102,7 +16160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>37438</v>
       </c>
@@ -16131,7 +16189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>37469</v>
       </c>
@@ -16160,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>37500</v>
       </c>
@@ -16189,7 +16247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>37530</v>
       </c>
@@ -16218,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>37561</v>
       </c>
@@ -16247,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>37591</v>
       </c>
@@ -16276,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>37622</v>
       </c>
@@ -16305,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>37653</v>
       </c>
@@ -16334,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>37681</v>
       </c>
@@ -16363,7 +16421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>37712</v>
       </c>
@@ -16392,7 +16450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>37742</v>
       </c>
@@ -16421,7 +16479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>37773</v>
       </c>
@@ -16450,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>37803</v>
       </c>
@@ -16479,7 +16537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>37834</v>
       </c>
@@ -16508,7 +16566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>37865</v>
       </c>
@@ -16537,7 +16595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>37895</v>
       </c>
@@ -16566,7 +16624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>37926</v>
       </c>
@@ -16595,7 +16653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>37956</v>
       </c>
@@ -16624,7 +16682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>37987</v>
       </c>
@@ -16653,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>38018</v>
       </c>
@@ -16682,7 +16740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>38047</v>
       </c>
@@ -16711,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>38078</v>
       </c>
@@ -16740,7 +16798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>38108</v>
       </c>
@@ -16769,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>38139</v>
       </c>
@@ -16798,7 +16856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>38169</v>
       </c>
@@ -16827,7 +16885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>38200</v>
       </c>
@@ -16856,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>38231</v>
       </c>
@@ -16885,7 +16943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>38261</v>
       </c>
@@ -16914,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>38292</v>
       </c>
@@ -16943,7 +17001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>38322</v>
       </c>
@@ -16972,7 +17030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>38353</v>
       </c>
@@ -17001,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>38384</v>
       </c>
@@ -17030,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>38412</v>
       </c>
@@ -17059,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>38443</v>
       </c>
@@ -17088,7 +17146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>38473</v>
       </c>
@@ -17117,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>38504</v>
       </c>
@@ -17146,7 +17204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>38534</v>
       </c>
@@ -17175,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>38565</v>
       </c>
@@ -17204,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>38596</v>
       </c>
@@ -17233,7 +17291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>38626</v>
       </c>
@@ -17262,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>38657</v>
       </c>
@@ -17291,7 +17349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>38687</v>
       </c>
@@ -17320,7 +17378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>38718</v>
       </c>
@@ -17349,7 +17407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>38749</v>
       </c>
@@ -17378,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>38777</v>
       </c>
@@ -17407,7 +17465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>38808</v>
       </c>
@@ -17436,7 +17494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>38838</v>
       </c>
@@ -17465,7 +17523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>38869</v>
       </c>
@@ -17494,7 +17552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>38899</v>
       </c>
@@ -17523,7 +17581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>38930</v>
       </c>
@@ -17552,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>38961</v>
       </c>
@@ -17581,7 +17639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>38991</v>
       </c>
@@ -17610,7 +17668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>39022</v>
       </c>
@@ -17639,7 +17697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>39052</v>
       </c>
@@ -17668,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>39083</v>
       </c>
@@ -17697,7 +17755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>39114</v>
       </c>
@@ -17726,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>39142</v>
       </c>
@@ -17755,7 +17813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>39173</v>
       </c>
@@ -17784,7 +17842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>39203</v>
       </c>
@@ -17813,7 +17871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>39234</v>
       </c>
@@ -17842,7 +17900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>39264</v>
       </c>
@@ -17871,7 +17929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>39295</v>
       </c>
@@ -17900,7 +17958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>39326</v>
       </c>
@@ -17929,7 +17987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>39356</v>
       </c>
@@ -17958,7 +18016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>39387</v>
       </c>
@@ -17987,7 +18045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>39417</v>
       </c>
@@ -18016,7 +18074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>39448</v>
       </c>
@@ -18045,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>39479</v>
       </c>
@@ -18074,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>39508</v>
       </c>
@@ -18103,7 +18161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>39539</v>
       </c>
@@ -18132,7 +18190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <v>39569</v>
       </c>
@@ -18161,7 +18219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>39600</v>
       </c>
@@ -18190,7 +18248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
         <v>39630</v>
       </c>
@@ -18219,7 +18277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
         <v>39661</v>
       </c>
@@ -18248,7 +18306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
         <v>39692</v>
       </c>
@@ -18277,7 +18335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
         <v>39722</v>
       </c>
@@ -18306,7 +18364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
         <v>39753</v>
       </c>
@@ -18335,7 +18393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
         <v>39783</v>
       </c>
@@ -18364,7 +18422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <v>39814</v>
       </c>
@@ -18393,7 +18451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
         <v>39845</v>
       </c>
@@ -18422,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
         <v>39873</v>
       </c>
@@ -18451,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
         <v>39904</v>
       </c>
@@ -18480,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <v>39934</v>
       </c>
@@ -18509,7 +18567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
         <v>39965</v>
       </c>
@@ -18538,7 +18596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
         <v>39995</v>
       </c>
@@ -18567,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
         <v>40026</v>
       </c>
@@ -18596,7 +18654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <v>40057</v>
       </c>
@@ -18625,7 +18683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
         <v>40087</v>
       </c>
@@ -18654,7 +18712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
         <v>40118</v>
       </c>
@@ -18683,7 +18741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
         <v>40148</v>
       </c>
@@ -18712,7 +18770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <v>40179</v>
       </c>
@@ -18741,7 +18799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
         <v>40210</v>
       </c>
@@ -18770,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
         <v>40238</v>
       </c>
@@ -18799,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
         <v>40269</v>
       </c>
@@ -18828,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>40299</v>
       </c>
@@ -18857,7 +18915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
         <v>40330</v>
       </c>
@@ -18886,7 +18944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>40360</v>
       </c>
@@ -18915,7 +18973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>40391</v>
       </c>
@@ -18944,7 +19002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>40422</v>
       </c>
@@ -18973,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
         <v>40452</v>
       </c>
@@ -19002,7 +19060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
         <v>40483</v>
       </c>
@@ -19031,7 +19089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>40513</v>
       </c>
@@ -19060,7 +19118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>40544</v>
       </c>
@@ -19089,7 +19147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>40575</v>
       </c>
@@ -19118,7 +19176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>40603</v>
       </c>
@@ -19147,7 +19205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
         <v>40634</v>
       </c>
@@ -19176,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
         <v>40664</v>
       </c>
@@ -19205,7 +19263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <v>40695</v>
       </c>
@@ -19234,7 +19292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
         <v>40725</v>
       </c>
@@ -19263,7 +19321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
         <v>40756</v>
       </c>
@@ -19292,7 +19350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
         <v>40787</v>
       </c>
@@ -19321,7 +19379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>40817</v>
       </c>
@@ -19350,7 +19408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <v>40848</v>
       </c>
@@ -19379,7 +19437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>40878</v>
       </c>
@@ -19408,7 +19466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>40909</v>
       </c>
@@ -19437,7 +19495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
         <v>40940</v>
       </c>
@@ -19466,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <v>40969</v>
       </c>
@@ -19495,7 +19553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <v>41000</v>
       </c>
@@ -19524,7 +19582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <v>41030</v>
       </c>
@@ -19553,7 +19611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>41061</v>
       </c>
@@ -19582,7 +19640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <v>41091</v>
       </c>
@@ -19611,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>41122</v>
       </c>
@@ -19640,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>41153</v>
       </c>
@@ -19669,7 +19727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:9">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>41183</v>
       </c>
@@ -19698,7 +19756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <v>41214</v>
       </c>
@@ -19727,7 +19785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>41244</v>
       </c>
@@ -19756,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>41275</v>
       </c>
@@ -19785,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:9">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <v>41306</v>
       </c>
@@ -19814,7 +19872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:9">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <v>41334</v>
       </c>
@@ -19843,7 +19901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <v>41365</v>
       </c>
@@ -19872,7 +19930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:9">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <v>41395</v>
       </c>
@@ -19901,7 +19959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>41426</v>
       </c>
@@ -19930,7 +19988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>41456</v>
       </c>
@@ -19959,7 +20017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>41487</v>
       </c>
@@ -19988,7 +20046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>41518</v>
       </c>
@@ -20017,7 +20075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>41548</v>
       </c>
@@ -20046,7 +20104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>41579</v>
       </c>
@@ -20075,7 +20133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>41609</v>
       </c>
@@ -20104,7 +20162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>41640</v>
       </c>
@@ -20133,7 +20191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>41671</v>
       </c>
@@ -20162,7 +20220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>41699</v>
       </c>
@@ -20191,7 +20249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>41730</v>
       </c>
@@ -20220,7 +20278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>41760</v>
       </c>
@@ -20249,7 +20307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>41791</v>
       </c>
@@ -20278,7 +20336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
         <v>41821</v>
       </c>
@@ -20307,7 +20365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
         <v>41852</v>
       </c>
@@ -20336,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>41883</v>
       </c>
@@ -20365,7 +20423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>41913</v>
       </c>
@@ -20394,7 +20452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>41944</v>
       </c>
@@ -20423,7 +20481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>41974</v>
       </c>
@@ -20452,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>42005</v>
       </c>
@@ -20481,7 +20539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>42036</v>
       </c>
@@ -20510,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>42064</v>
       </c>
@@ -20539,7 +20597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>42095</v>
       </c>
@@ -20568,7 +20626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
         <v>42125</v>
       </c>
@@ -20597,7 +20655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
         <v>42156</v>
       </c>
@@ -20626,7 +20684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
         <v>42186</v>
       </c>
@@ -20655,7 +20713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
         <v>42217</v>
       </c>
@@ -20684,7 +20742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
         <v>42248</v>
       </c>
@@ -20713,7 +20771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
         <v>42278</v>
       </c>
@@ -20742,7 +20800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <v>42309</v>
       </c>
@@ -20771,7 +20829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
         <v>42339</v>
       </c>
@@ -20800,7 +20858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <v>42370</v>
       </c>
@@ -20829,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <v>42401</v>
       </c>
@@ -20858,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
         <v>42430</v>
       </c>
@@ -20887,7 +20945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
         <v>42461</v>
       </c>
@@ -20916,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
         <v>42491</v>
       </c>
@@ -20945,7 +21003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
         <v>42522</v>
       </c>
@@ -20974,7 +21032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
         <v>42552</v>
       </c>
@@ -21003,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
         <v>42583</v>
       </c>
@@ -21032,7 +21090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
         <v>42614</v>
       </c>
@@ -21061,7 +21119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <v>42644</v>
       </c>
@@ -21090,7 +21148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
         <v>42675</v>
       </c>
@@ -21119,7 +21177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
         <v>42705</v>
       </c>
@@ -21148,7 +21206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>42736</v>
       </c>
@@ -21177,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
         <v>42767</v>
       </c>
@@ -21206,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:9">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>42795</v>
       </c>
@@ -21235,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <v>42826</v>
       </c>
@@ -21264,7 +21322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
         <v>42856</v>
       </c>
@@ -21293,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <v>42887</v>
       </c>
@@ -21322,7 +21380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>42917</v>
       </c>
@@ -21351,7 +21409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
         <v>42948</v>
       </c>
@@ -21380,7 +21438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <v>42979</v>
       </c>
@@ -21409,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:9">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
         <v>43009</v>
       </c>
@@ -21438,7 +21496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
         <v>43040</v>
       </c>
@@ -21467,7 +21525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
         <v>43070</v>
       </c>
@@ -21496,7 +21554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <v>43101</v>
       </c>
@@ -21525,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:9">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
         <v>43132</v>
       </c>
@@ -21554,7 +21612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
         <v>43160</v>
       </c>
@@ -21583,7 +21641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
         <v>43191</v>
       </c>
@@ -21612,7 +21670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:9">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
         <v>43221</v>
       </c>
@@ -21641,7 +21699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:9">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
         <v>43252</v>
       </c>
@@ -21670,7 +21728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:9">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
         <v>43282</v>
       </c>
@@ -21699,7 +21757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="669" spans="1:9">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
         <v>43313</v>
       </c>
@@ -21728,7 +21786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
         <v>43344</v>
       </c>
@@ -21757,7 +21815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="671" spans="1:9">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
         <v>43374</v>
       </c>
@@ -21786,7 +21844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="672" spans="1:9">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
         <v>43405</v>
       </c>
@@ -21815,7 +21873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:9">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
         <v>43435</v>
       </c>
@@ -21844,7 +21902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="674" spans="1:9">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <v>43466</v>
       </c>
@@ -21873,7 +21931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:9">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <v>43497</v>
       </c>
@@ -21902,7 +21960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:9">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
         <v>43525</v>
       </c>
@@ -21931,7 +21989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:9">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
         <v>43556</v>
       </c>
@@ -21960,7 +22018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:9">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <v>43586</v>
       </c>
@@ -21989,7 +22047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:9">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
         <v>43617</v>
       </c>
@@ -22018,7 +22076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:9">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
         <v>43647</v>
       </c>
@@ -22047,7 +22105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:9">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <v>43678</v>
       </c>
@@ -22076,7 +22134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:9">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <v>43709</v>
       </c>
@@ -22105,7 +22163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:9">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <v>43739</v>
       </c>
@@ -22134,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:9">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <v>43770</v>
       </c>
@@ -22163,7 +22221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:9">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
         <v>43800</v>
       </c>
@@ -22192,7 +22250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <v>43831</v>
       </c>
@@ -22221,7 +22279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:9">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
         <v>43862</v>
       </c>
@@ -22250,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:9">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <v>43891</v>
       </c>
@@ -22279,7 +22337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:9">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <v>43922</v>
       </c>
@@ -22308,7 +22366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="690" spans="1:9">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
         <v>43952</v>
       </c>
@@ -22337,7 +22395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:9">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <v>43983</v>
       </c>
@@ -22366,7 +22424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:9">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
         <v>44013</v>
       </c>
@@ -22395,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
         <v>44044</v>
       </c>
@@ -22424,7 +22482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:9">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
         <v>44075</v>
       </c>
@@ -22453,7 +22511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="695" spans="1:9">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
         <v>44105</v>
       </c>
@@ -22482,7 +22540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:9">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
         <v>44136</v>
       </c>
@@ -22511,7 +22569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="697" spans="1:9">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
         <v>44166</v>
       </c>
@@ -22540,7 +22598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
         <v>44197</v>
       </c>
@@ -22569,7 +22627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
         <v>44228</v>
       </c>
@@ -22598,7 +22656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:9">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
         <v>44256</v>
       </c>
@@ -22627,7 +22685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
         <v>44287</v>
       </c>
@@ -22656,7 +22714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:9">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
         <v>44317</v>
       </c>
@@ -22685,7 +22743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:9">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
         <v>44348</v>
       </c>
@@ -22714,7 +22772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:9">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
         <v>44378</v>
       </c>
@@ -22743,7 +22801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:9">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <v>44409</v>
       </c>
@@ -22772,7 +22830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:9">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
         <v>44440</v>
       </c>
@@ -22801,7 +22859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:9">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
         <v>44470</v>
       </c>
@@ -22830,7 +22888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:9">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
         <v>44501</v>
       </c>
@@ -22859,7 +22917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:9">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
         <v>44531</v>
       </c>
@@ -22888,7 +22946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
         <v>44562</v>
       </c>
@@ -22917,18 +22975,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:9">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
         <v>44593</v>
       </c>
       <c r="B711">
-        <v>513900</v>
+        <v>522200</v>
       </c>
       <c r="C711">
-        <v>72000</v>
+        <v>71000</v>
       </c>
       <c r="D711">
-        <v>37000800000</v>
+        <v>37076200000</v>
       </c>
       <c r="E711">
         <v>4</v>
@@ -22937,7 +22995,7 @@
         <v>10</v>
       </c>
       <c r="G711" t="s">
-        <v>169</v>
+        <v>645</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22946,18 +23004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:9">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
         <v>44621</v>
       </c>
       <c r="B712">
-        <v>522500</v>
+        <v>512900</v>
       </c>
       <c r="C712">
-        <v>68000</v>
+        <v>69000</v>
       </c>
       <c r="D712">
-        <v>35530000000</v>
+        <v>35390100000</v>
       </c>
       <c r="E712">
         <v>0</v>
@@ -22966,7 +23024,7 @@
         <v>9</v>
       </c>
       <c r="G712" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22975,18 +23033,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:9">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
         <v>44652</v>
       </c>
       <c r="B713">
-        <v>570300</v>
+        <v>569500</v>
       </c>
       <c r="C713">
-        <v>53000</v>
+        <v>57000</v>
       </c>
       <c r="D713">
-        <v>30225900000</v>
+        <v>32461500000</v>
       </c>
       <c r="E713">
         <v>0</v>
@@ -22995,13 +23053,42 @@
         <v>9</v>
       </c>
       <c r="G713" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
       </c>
       <c r="I713">
         <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A714" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B714">
+        <v>511400</v>
+      </c>
+      <c r="C714">
+        <v>63000</v>
+      </c>
+      <c r="D714">
+        <v>32218200000</v>
+      </c>
+      <c r="E714">
+        <v>0</v>
+      </c>
+      <c r="F714" t="s">
+        <v>9</v>
+      </c>
+      <c r="G714" t="s">
+        <v>648</v>
+      </c>
+      <c r="H714" t="s">
+        <v>9</v>
+      </c>
+      <c r="I714">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/US Housing Monthly Revenue.xlsx
+++ b/US Housing Monthly Revenue.xlsx
@@ -2043,6 +2043,2249 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Revenue'!$D$2:$D$714</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="713"/>
+                <c:pt idx="0">
+                  <c:v>722400000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>619500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800800000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>946400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1015000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>864000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1140800000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>996800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>877100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>774400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>717600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>579700000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>694200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>828000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1007000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>921200000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1003600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>996400000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1031400000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1058400000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>907200000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>850500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>714100000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>693000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>786600000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>897600000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1049400000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>975100000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1058400000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1128600000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1071000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1171600000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>940800000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>875600000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>865200000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>751100000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>890400000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>898700000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1102400000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1127000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1092700000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>848000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>872000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>745200000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>643800000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>644800000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>564200000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>499100000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>643800000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>716800000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>918400000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>981200000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1161300000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1123300000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1071800000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1019900000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>980400000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1003500000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>785400000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>688200000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>819000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1010500000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1131600000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1127000000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1087900000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1041400000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1082400000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1175000000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1025000000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1024000000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>787200000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>848000000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>836400000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1040000000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1126600000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1087800000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1156700000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1108800000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1045200000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>996000000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>858000000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>780800000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>771900000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>702800000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>802400000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>698900000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>867600000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1016400000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1105100000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1047200000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1007600000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1128000000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1017000000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>972400000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940000000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>825100000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1075500000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1200500000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1506600000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1599600000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1479000000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1539900000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1612800000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1568600000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1270000000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1331200000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1285000000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1113200000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1259700000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1484000000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1644000000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1735500000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1728000000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1688400000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1745100000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2023200000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1708000000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1878500000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1484100000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1395900000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1644500000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1782000000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2135200000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2066400000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2080000000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2019100000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1846800000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1726400000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1527200000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1398600000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1258000000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1071000000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1265400000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1535600000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1980000000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1892100000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2070600000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1755000000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1766400000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1606500000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1484200000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1264800000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1119000000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>897600000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1145500000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1380400000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1852400000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2268000000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2462400000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2167500000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2157300000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2183600000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1996400000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2019400000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2010200000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1790100000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1857300000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2432700000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2574000000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2901600000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2612500000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2755200000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2736000000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2861500000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2795600000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2772000000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2450000000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2378200000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2889900000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3576800000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4334400000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4422600000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4243200000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3988600000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3430400000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4018200000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3826900000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3603600000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3179000000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2937600000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3334500000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3723300000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4492500000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5040500000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4984000000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4866400000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4277200000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4536000000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4379200000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4599000000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3513900000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3370000000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3588100000</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3984600000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5000500000</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5112000000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4882400000</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4680900000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4601600000</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5032000000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4608000000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3861000000</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3042200000</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2541000000</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3113200000</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3370400000</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3150400000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2685600000</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3203200000</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3780000000</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4218500000</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4636000000</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4005000000</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3565000000</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3190200000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2686200000</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2985900000</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3200000000</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3998400000</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3726800000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3762000000</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3218600000</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2973600000</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2958000000</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2276400000</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2392500000</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2303100000</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2401200000</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2184000000</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2340300000</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3013200000</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2720000000</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3114000000</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2886600000</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2681500000</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3114000000</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3104400000</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3196000000</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3424200000</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2861100000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3836800000</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3992800000</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4913400000</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>5168400000</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>5683200000</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>5363100000</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4549200000</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4565000000</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4694400000</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4564500000</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4113000000</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4401600000</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4794400000</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5475200000</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>6155100000</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5868200000</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>6012100000</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5730400000</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5049200000</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4651200000</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5368900000</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5263500000</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>4258800000</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3659400000</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4718400000</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5291000000</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>6760300000</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>6282000000</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>6376500000</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>6474000000</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>6262200000</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>6051200000</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5540400000</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5340400000</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5309100000</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4986700000</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5725500000</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>6289400000</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>9612000000</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>9265200000</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8595000000</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>7319400000</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>6657600000</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5886400000</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>6840000000</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>6204600000</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5452800000</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5826100000</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>6471300000</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>7156700000</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>8723500000</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>8503200000</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>7849200000</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7876400000</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>7073000000</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7196000000</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>6942000000</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>6541600000</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5985600000</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5039400000</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6209200000</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>7568000000</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>9057600000</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>9180000000</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>8544000000</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>8872500000</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>8054100000</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>8295400000</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>7705800000</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>7826100000</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>5903900000</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>6203400000</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>7207200000</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>7410300000</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>8642000000</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>8682000000</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>8851100000</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>8908800000</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>8698600000</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>9674600000</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>7403900000</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>7537800000</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>7115800000</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>6172000000</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>6826500000</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>7545000000</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>8386800000</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>7976800000</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>7530000000</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>7520000000</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6890800000</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>6656200000</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>5399800000</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>5661000000</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>4872200000</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>4448600000</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>4458000000</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5912000000</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>7976400000</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>7540000000</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6833800000</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>6857300000</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>6372600000</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>6522800000</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>5450100000</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>6043400000</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>5526300000</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>5148000000</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>6921600000</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>7964000000</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>8108800000</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>7685000000</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>7592000000</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>7769800000</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>7160400000</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>8136800000</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>7252200000</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>7123200000</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>6182400000</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>6140400000</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>6111600000</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>7470000000</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>8796000000</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>9794400000</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>8833400000</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>8596300000</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>7887000000</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>8584200000</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>8555700000</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>8226400000</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>8082500000</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>7466400000</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>7056400000</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>8740600000</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>11307200000</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>9938500000</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>9867000000</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>8712000000</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>7508800000</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>9139100000</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>8488800000</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>8721000000</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>6993000000</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>6384000000</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>6927800000</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>7529400000</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>9198000000</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>9152400000</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>9954000000</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>10252800000</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>9868800000</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>10206000000</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>8402400000</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>8434800000</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>7392200000</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>7452000000</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>8386200000</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>11131600000</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>11347000000</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>11900000000</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>11267700000</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>10822500000</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>11114400000</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>11658100000</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>10378800000</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>9430400000</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>9288000000</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>8761800000</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>10485900000</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>11805900000</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>13988700000</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>12565000000</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>12119700000</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>12737400000</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>12109500000</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>12290400000</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>11892500000</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>10719800000</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>10699400000</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>8965800000</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>11430400000</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>13620000000</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>14458500000</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>14489400000</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>15047000000</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>14599700000</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>13485000000</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>13987500000</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>12423600000</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>12613200000</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>12502000000</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>11181300000</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>12254300000</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>14546400000</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>15901200000</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>16529200000</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>15032000000</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>15899800000</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>14749800000</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>15061800000</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>12662000000</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>13413400000</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>12901500000</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>11519700000</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>13420100000</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>15537600000</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>18031200000</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>16169400000</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>15400000000</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>14036700000</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>15367200000</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>14614600000</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>14581000000</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>15272100000</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>13274100000</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>13526500000</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>15048000000</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>17935000000</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>19758800000</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>17262000000</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>16912000000</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>16724300000</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>15906800000</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>15355000000</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>13417800000</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>13668600000</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>13862300000</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>15094200000</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>14975400000</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>19026000000</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>20439000000</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>19616600000</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>19932000000</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>18916800000</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>17859600000</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>19917000000</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>17654600000</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>17810100000</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>16578300000</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>16646000000</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>17495200000</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>19138800000</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>22647800000</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>21585200000</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>24613700000</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>25647900000</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>24591600000</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>25305000000</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>22905000000</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>21366400000</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>20390800000</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>19042500000</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>23326900000</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>26938200000</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>32103000000</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>29353700000</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>29946000000</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>27636000000</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>26803200000</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>27764400000</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>25304800000</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>29249600000</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>23788800000</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>23596900000</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>26036000000</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>31511900000</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>36779200000</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>33535600000</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>34488000000</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>32154000000</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>33848100000</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>32450000000</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>29660400000</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>30828000000</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>25318400000</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>25247400000</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>26789000000</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>27095200000</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>32270400000</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>31030000000</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>29977800000</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>29890000000</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>25837900000</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>27922400000</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>23696000000</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>22703200000</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>20717800000</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>21434900000</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>20763600000</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>21862000000</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>26352000000</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>25871100000</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>24466300000</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>22374500000</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>20882800000</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>18078000000</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>15486600000</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>17675700000</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>14256000000</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>12513600000</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>12522400000</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>14457600000</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>14092400000</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>15400700000</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>14611800000</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>13473000000</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>12981700000</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>10089000000</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>10048500000</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>8768000000</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>7832700000</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>6840600000</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>5884800000</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>7499400000</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>8053800000</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>8633600000</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>9336400000</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>10167600000</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>10301800000</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>9280800000</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>8709000000</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>8705400000</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>7142200000</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>6679200000</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>6801600000</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>7670700000</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>9464400000</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>11090500000</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>7308600000</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>7187600000</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>6554600000</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>6182400000</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>6770000000</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>5851200000</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>5634000000</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>6709100000</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>5789700000</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>5781600000</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>7302400000</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>8067000000</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>7355600000</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>7646800000</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>7298100000</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>6482500000</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>6129600000</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>6457500000</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>5750000000</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>6309600000</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>6111100000</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>8220000000</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>9642400000</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>9788600000</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>9831500000</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>9241200000</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>9315900000</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>9470500000</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>8931000000</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>8276600000</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>8139600000</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>8377600000</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>9820800000</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>11250000000</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>12308200000</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>14491000000</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>12560000000</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>13162300000</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>10886700000</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>9634800000</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>9963400000</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>12085200000</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>10739200000</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>9957200000</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>11130900000</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>11406500000</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>12928500000</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>12678900000</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>13910500000</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>12847800000</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>12082000000</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>12823200000</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>11806700000</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>14345000000</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>10815900000</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>13062000000</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>13583700000</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>15583500000</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>16067800000</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>16339200000</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>15801400000</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>14383600000</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>14671600000</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>14075300000</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>12502000000</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>14387100000</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>13435200000</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>13395000000</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>14086800000</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>15376500000</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>17950000000</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>20311500000</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>18534100000</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>17890000000</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>19062000000</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>16334600000</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>16108400000</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>16201200000</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>14536000000</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>14917500000</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>16096500000</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>18895500000</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>23448400000</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>20484800000</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>21568800000</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>20753600000</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>17875200000</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>16614000000</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>18965000000</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>19306000000</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>19425000000</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>18130500000</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>18134400000</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>20174400000</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>24367200000</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>23491100000</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>23101200000</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>20725600000</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>20399600000</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>17902300000</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>17774400000</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>16980700000</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>16152400000</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>14508400000</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>17693900000</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>21865200000</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>25343600000</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>24665600000</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>21229600000</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>23885400000</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>20542500000</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>22383900000</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>20837600000</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>20916500000</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>19220000000</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>18507300000</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>22656000000</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>24330600000</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>22148600000</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>18735600000</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>23596800000</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>30193800000</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>32223500000</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>31290300000</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>31192700000</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>30778800000</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>24162100000</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>25307100000</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>32232200000</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>28525000000</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>34420100000</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>32175200000</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>28944500000</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>26345900000</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>28650200000</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>25850000000</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>27294800000</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>24872700000</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>26935200000</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>29951000000</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>35084000000</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>37076200000</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>35390100000</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>32461500000</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>32218200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2335,6 +4578,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -23044,6 +25290,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23054,6 +25301,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -26576,6 +28826,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -30098,6 +32351,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -33620,6 +35876,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -37142,6 +39401,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -40664,6 +42926,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
